--- a/ai_text_parse/data.xlsx
+++ b/ai_text_parse/data.xlsx
@@ -1,82 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Emmet\Book_Parsing\ai_text_parse\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{293EB028-FF1B-41B4-9C94-02B606D2140E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="41895" yWindow="0" windowWidth="21465" windowHeight="20880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="45090" yWindow="450" windowWidth="21465" windowHeight="20880" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Directory" sheetId="1" r:id="rId1"/>
+    <sheet name="Directory" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>Company Name</t>
-  </si>
-  <si>
-    <t>Fiber Type</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
-    <t>Combined Fiber Types</t>
-  </si>
-  <si>
-    <t>Headquarters</t>
-  </si>
-  <si>
-    <t>Plant for fiber</t>
-  </si>
-  <si>
-    <t>Sales Office</t>
-  </si>
-  <si>
-    <t>Regional Sales Office</t>
-  </si>
-  <si>
-    <t>R&amp;D Lab</t>
-  </si>
-  <si>
-    <t>Trademark</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Page</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -95,24 +46,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -432,85 +442,3963 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:O115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" customWidth="1"/>
-    <col min="2" max="2" width="52.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.28515625" customWidth="1"/>
-    <col min="5" max="5" width="32.140625" customWidth="1"/>
-    <col min="6" max="6" width="25.42578125" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" customWidth="1"/>
-    <col min="9" max="9" width="31.5703125" customWidth="1"/>
-    <col min="10" max="10" width="38.28515625" customWidth="1"/>
-    <col min="11" max="11" width="24.28515625" customWidth="1"/>
-    <col min="13" max="13" width="17.7109375" customWidth="1"/>
+    <col width="9.5703125" customWidth="1" min="1" max="1"/>
+    <col width="97.5703125" customWidth="1" min="2" max="2"/>
+    <col width="31.28515625" customWidth="1" min="3" max="3"/>
+    <col width="31" customWidth="1" min="5" max="5"/>
+    <col width="60.28515625" customWidth="1" min="6" max="6"/>
+    <col width="23.5703125" customWidth="1" min="7" max="7"/>
+    <col width="31.5703125" customWidth="1" min="9" max="9"/>
+    <col width="38.28515625" customWidth="1" min="10" max="10"/>
+    <col width="24.28515625" customWidth="1" min="11" max="11"/>
+    <col width="17.7109375" customWidth="1" min="13" max="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>3</v>
-      </c>
-      <c r="I1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" t="s">
-        <v>3</v>
-      </c>
-      <c r="M1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>Company Name</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>Fiber Type</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>Combined Fiber Types</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>Headquarters</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>Plant for fiber</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>Sales Office</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>Regional Sales Office</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>R&amp;D Lab</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>NA</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>Trademark</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>Notes</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>Page</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n"/>
+      <c r="B7" s="1" t="n"/>
+      <c r="C7" s="1" t="n"/>
+      <c r="D7" s="1" t="n"/>
+      <c r="E7" s="1" t="n"/>
+      <c r="F7" s="1" t="n"/>
+      <c r="G7" s="1" t="n"/>
+      <c r="H7" s="1" t="n"/>
+      <c r="I7" s="1" t="n"/>
+      <c r="J7" s="1" t="n"/>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>ALBANY INTERNATIONAL-MONOFILAMENT PLANT</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Fluoro; Nylon 6, 66, &amp; 612; Polyester</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Hatar, Kynar, Teflon, Tefzel; regular &amp; hydrolysis-resistant</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>156 s. Main Street, Homer, NY 13077</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Homer, NY &amp; Homer &amp; Homer</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>ALLIED CORPORATION, CHEMICAL SECTOR, FIBERS DIVISION</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Nylon 6; Polyester</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>A.C.E., Anso, Anso-Tex, Caprotan, Nypel (yarn, monofil &amp; staple); A.C.E. (yarn &amp; monofil)</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1411 Broadway, New York, NY 10018</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Columbia, SC &amp; Hopewell, VA &amp; Moncure, NC</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>400 N. Tustin Ave., Santa Ana, CA 92705; 1775 The Exchange, Suite 160, Atlanta, GA 30339; 2100 Fiber Park Dr., Dalton, GA 30720; Friendship Center Office Park, Suite 108, Greensboro, NC 27409; 64 South Miller Rd., Akron, OH 44313</t>
+        </is>
+      </c>
+      <c r="N9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>AMERICAN CYANAMID COMPANY, FIBERS DIVISION</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Acrylic</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Gres/an (staple &amp; tow)</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>One Cyanamid Plaza, Wayne, NJ 07470</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Milton, FL</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>One Penn Plaza, New York, NY 10119; P.O. Box 32787, Charlotte, NC 28232</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>AMERICAN ENKA COMPANY, A PART OF AKZONA, INC.</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Nylon 6; Polyester; Rayon</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Anti-Cling Crepeset, Crepeset, Enka/on, Enkature, Enkasheer, Lure/on, Softaton, T.E.N. (yarn &amp; staple); Crepesoft, Encron, Encron 8, Golden Glow, Golden Touch, Matte Touch, Plyloc, Polyextra, Shanton, Silky Touch, Ultra-Touch (yarn &amp; staple); Absorbit, Enkaire, Enkrome, Fiber 700, IT (staple)</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Enka, NC 28728</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Enka, NC &amp; Central, SC &amp; Lowland, TN &amp; Lowland, TN &amp; Lowland, TN</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>Enka, NC 28728; 111 W. 40th St., New York, NY 10018; 616 Green Valley Rd., Greensboro, NC 27404; 2106 Fiber Park Drive, Dalton, GA 30720</t>
+        </is>
+      </c>
+      <c r="N11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>AMERICAN HOECHST CORPORATION, HOECHST FIBERS INDUSTRIES DIVISION</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Polyester</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Trevira (yarn, monofil, staple, &amp; spunbonded)</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1515 Broadway, New York, NY 10036</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Spartanburg, SC</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>5601-77 Center Drive, Suite 250, Charlotte, NC 28210; California Mart, 11 O E. 9th St., Los Angeles, CA 90079</t>
+        </is>
+      </c>
+      <c r="N12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>AMETEK INC., SPECIAL FILAMENTS DIVISION</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Nylon 6, 66; 612 &amp; 11; Polyester; Saran</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr"/>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Box 339, Odenton, MD 21113</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Odenton, MD &amp; Odenton &amp; Odenton &amp; Odenton</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>AVTEX FIBERS INC.</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Acetate; Polyester; Rayon; Vinyon</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>yarn; Av/in, yarn; Avitoc, Avrit, Avril II, Avril III, Avril Prima, Fibers 40 &amp; 43, ind yarn &amp; staple; staple</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3 Lee Rd. (Chesterbrook), P.O. Box 880, Valley Forge, PA 19482</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Meadville, PA &amp; Lewistown, PA &amp; Front Royal, VA &amp; Meadville</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>1 Fairview Plaza, 5950 Fairview Rd., Suite 501, Charlotte, NC 28210</t>
+        </is>
+      </c>
+      <c r="N14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>BADISCHE CORPORATION</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Acrylic; Nylon 6</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>Zefran (staple); Zeftron (yarn &amp; staple)</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Williamsburg, VA 23187</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Williamsburg, VA &amp; Anderson, SC</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>5505 East Carson St., Lakewood, CA 90713; 500 Holiday Avenue, The Badische Building, Dalton, GA 30720; 111 West 40th St., New York, NY 10018</t>
+        </is>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>Badische Corp. has carpet yarn spinning plants at Allendale, SC and Sylvania, GA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>BERKLEY &amp; CO. INC.</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Nylon 6</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>monofil</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Highways 9 &amp; 71, Spirit Lake, IA 51360</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Spirit Lake, IA</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>CAMAC CORPORATION</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Nylon 6</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Gama/on (yarn)</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>P.O. Box 1004, Bristol, VA 24203</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Bristol, VA</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>CELANESE FIBERS OPERATIONS, A DIVISION OF CELANESE CORPORATION</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Acetate; Polyester; PSI; Triacetate</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Celanese (yarn, staple &amp; tow); Angetette, Ceylon, Comfort Fiber, ESP, Fortrel, Loftguard, PotarGuard, Serene, Superba (yarn, staple, tow &amp; fiberfill); staple; Arnet (yarn, staple &amp; tow)</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>P.O. Box 32414, Charlotte, NC 28232</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Rock Hill, SC &amp; Narrows, VA &amp; Fayetteville, Salisbury &amp; Shelby, NC &amp; Darlington &amp; Greenville, SC &amp; Rock Hill &amp; Rock Hill</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>110 E. 9th St., Room A 1229, Los Angeles, CA 90015; 6650 Powers Ferry Rd. N.W., Atlanta, GA 30339; P.O. Box 32414, Charlotte, NC 28232; 2950 W. Market St., Akron, OH 44313</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>MARKETER: Celanese Fibers Operations, Marketing, 1211 Avenue of the Americas, New York, NY 10036</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>CORTLAND LINE COMPANY</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Nylon 6</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>monofil-captive</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>67 E. Court St., P.O. Box 1362, Cortland, NY 13045</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Cortland, NY</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
+      <c r="N19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>COURTAULDS NORTH AMERICA INC.</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Rayon; Nylon 6</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Cotoray, Courcel &amp; Fibro (staple); Courtautds, Shareen, (yarn &amp; monofil)</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>104 West 40th St., New York, NY 10018</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Le Moyne, Mobile County, AL &amp; Le Moyne</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>P.O. Box 2648, Mobile, AL 36652</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>E. I. DU PONT DE NEMOURS &amp; COMPANY (INC.), TEXTILE FIBERS DEPARTMENT, POLYMER PRODUCTS DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Acrylic; Aramid; Nylon 66; Polyester; Spandex; Nylon 6, 66, 612; Polyester</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Orlon (staple &amp; tow); Kevlar (yarn), Nomex (yarn, staple &amp; tow); Antron, Cantrece, Cordura, Du Pont, Hyten (yarn, monofil, staple &amp; tow); Dacron, Hollofil (yarn, staple, tow &amp; fiberfill), Reemay (spunbonded), Sontara (spun laced); Lycra (fused multifil or coalesced monofil); Dacron, Dymetrol, Tynex &amp; Vycor (Monofil of 50 denier &amp; coarser)</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>see listing above</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Camden, SC &amp; Waynesboro, VA &amp; Richmond &amp; Seaford, DE, Camden, SC, Chattanooga, TN and Martinsville, Richmond &amp; Waynesboro, VA &amp; Kinston &amp; Wilmington, NC, Camden &amp; Charleston, SC and Chattanooga &amp; Old Hickory, TN &amp; Waynesboro &amp; Parkersburg, WV</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>5500 Union Pacific Ave., City of Commerce, CA 00022; 2 N. La Salle St., Suite 1905, Chicago, IL 60602; 350 Fifth Ave., New York, NY 10118; 6250 Fairview Rd., Charlotte, NC 28234; 2770 W. Market St., Akron, OH 44313; 50 North Broadway, Rumford, RI 02916; 300 Franklin Bldg., Eastgate Center, Chattanooga, TN 37411</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>EASTMAN KODAK COMPANY, EASTMAN CHEMICALS DIVISION</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Acetate; Polyester</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Chromspun, Estron; Kodel (yarn &amp; staple)</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Kingsport, TN 37662</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Kingsport, TN &amp; Kingsport, TN &amp; Columbia, SC</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>New York : 1133 Avenue of the Americas, New York, NY 10036; California: California Mart, 110 E. 9th St., Los Angeles, CA 90015</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>FIRESTONE FIBERS &amp; TEXTILES COMPANY, DIVISION OF FIRESTONE TIRE &amp; RUBBER COMPANY</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Polyester</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>yarn</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>P.O. Box 1278, Gastonia, NC 28052</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Hopewell, VA</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>GLOBE MANUFACTURING CO.</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Spandex</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Cleerspan, oc- 100 oc70o, G/ospan (fused multifil)</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>456 Bedford St., Fall River, MA 02720</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Fall River, MA &amp; Gastonia, NC</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>THE GOODYEAR TIRE &amp; RUBBER COMPANY, CHEMICAL DIVISION</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Polyester</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>yarn-captive</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Akron, OH 44316</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Scottsboro, AL &amp; Point Pleasant, WV</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>GUILFORD MILLS, GAINESVILLE DIVISION</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Nylon 6</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>yarn &amp; monofil-captive</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4925 West Market St., Greensboro, NC 27402</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>455 Osborne St., S.E., Gainesville, GA 30501 &amp; Gainesville, GA</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>HANOVER MILLS, INCORPORATED</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Nylon 6</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Hanover (yarn &amp; monofil)</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2120 Pinecroft Road, Greensboro, NC 27407</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Yanceyville, NC</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>1450 Broadway, New York, NY 10018; 2120 Pinecroft Road, Greensboro, NC 27407</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>JOHNSON FILAMENTS, INC.</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Nylon 6/ 66; Polyester</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>monofil; monofil</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Industrial Ave., Williston, VT 95495</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Williston, VT &amp; Williston</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="J28" t="inlineStr"/>
+      <c r="N28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>KAYSER-ROTH CORPORATION, YARN PROCESSING DIVISION</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Nylon 66</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>yarn-captive</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2303 w. Meadowview Rd., Greensboro, NC 27407</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Creedmoor, NC</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
+      <c r="J29" t="inlineStr"/>
+      <c r="N29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>MONOFILAMENTS, INC.</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Nylon 6/66; Polycarbonate; Polyester</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>monofil; monofil; monofil</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1401 Hapeman Pkwy., Waynesboro, VA 22980</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Waynesboro, VA &amp; Waynesboro &amp; Waynesboro</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="J30" t="inlineStr"/>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>The company also produces fusible nylon (monofil) at its Waynesboro facility</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>MONSANTO COMPANY, MONSANTO FIBERS &amp; INTERMEDIATES COMPANY</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Acrylic; Modacrylic; Nylon 66</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>Acrilan, Bi-Loft, Fi-Lana, Fondelle, Pa-Qel, Remember, So-Lara (staple &amp; tow); SEF (staple &amp; tow); Ultron (yarn, monofil &amp; staple), Cerex (spunbonded)</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>800 N. Lindbergh Blvd., St. Louis, MO 63167</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Decatur, AL &amp; Decatur &amp; Pensacola, FL &amp; Greenwood, SC</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>110 E. 9th St., Los Angeles, CA 90015; 401 Dove St., Newport Beach, CA 92663; 320 Interstate North Pkwy., Atlanta, GA 30339; Merchandise Mart, 222 North Bank Dr., Chicago, IL 60654; 1460 Broadway, 11th Fl., New York, NY 10036; 6230 Fairview Rd., Charlotte, NC 28210; 260 Springside Dr., P.O. Box 5444, Akron, OH 44313</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>MONSANTO COMPANY, MONSANTO PLASTICS AND POLYMERS COMPANY</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Nylon 66</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>AstroTurf (recreational &amp; landscaping surfaces)</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr"/>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Pensacola</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>800 N. Lindbergh Blvd., St. Louis, MO 63167</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>NORTH AMERICAN RAYON CORPORATION</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Rayon</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>ind &amp; reg yarn and tow</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1011 Schaub Drive, Raleigh, NC 27606</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Elizabethton, TN</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>500 Fifth Ave., New York, NY 10110</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>OMEGA YARNS, INC.</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Polyester</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>yarn</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Blackstock Rd., P.O. Box 6218, Spartanburg, SC 29304</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Asheboro, NC</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>183 Madison Ave., New York, NY 10017</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>Subsidiary of Tietex Corp.</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>SHAKESPEARE COMPANY, MONOFILAMENT DIVISION</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Nylon 6/66; Polyester</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>Sooflex, Superflex, s-3 Wonderthread; Shakespeare Wonderthread</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr"/>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Columbia, SC &amp; Columbia</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>1801 Main St., P.O. Box 246, Columbia, SC 29202</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>STAR FIBERS, INC.</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Nylon 6</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>Starbrite (staple)</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>136 Fuller Rd., Albany, NY 12205</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Edgefield, SC</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Edgefield, SC 29824</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>TOLARAM FIBERS, INC.</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Polyester</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>yarn</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>P.O. Box 436, 525 Pineview Road, Ansonville, NC 27302</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Ansonville, NC</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
+      <c r="N37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>UNIVERSAL POLYMER PRODUCTS CORPORATION</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Polyester</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>yarn &amp; monofil</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>see Hanover Mills.</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Fuquay-Varina, NC</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>1450 Broadway, New York, NY 10018; 2120 Pinecroft Road, Greensboro, NC 27407</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>WELLMAN, INC., MAN-MADE FIBER DIVISION</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Nylon 6; Nylon 66; Polyester</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>Wei/on (staple &amp; monofil); Wei/on, Wei/strand (staple, tow, tops &amp; monofil); Fil/well, Wellene, Wei/strand (staple, tow &amp; monofil)</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>75 Federal St., Boston, MA 02110</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Johnsonville, SC &amp; Johnsonville &amp; Johnsonville</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>1200 East Morehead St., Charlotte, NC 28204</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr"/>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>YKK ZIPPER CO.</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Polyester; Olefin</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>yarn</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr"/>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Macon, GA</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="J40" t="inlineStr"/>
+      <c r="N40" t="inlineStr"/>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>ACS INDUSTRIES, INC.</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>P yarn &amp; staple</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>71 Villanova St., Woonsocket, RI 02895</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Woonsocket, RI</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr"/>
+      <c r="J41" t="inlineStr"/>
+      <c r="N41" t="inlineStr"/>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>ALADDIN CARPETS, INC.</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr"/>
+      <c r="F42" t="inlineStr"/>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>DALTON, GA (P yarn)</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr"/>
+      <c r="J42" t="inlineStr"/>
+      <c r="N42" t="inlineStr"/>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>ALBANY INTERNATIONAL</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr"/>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>see listing on page 197</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Homer, NY (P monofil)</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr"/>
+      <c r="J43" t="inlineStr"/>
+      <c r="N43" t="inlineStr"/>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>AMERICAN MANUFACTURING COMPANY, HONESDALE ROPE DIVISION, LAFAYETTE ROPE DIVISION</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>E &amp; P monofil &amp; film; Amco, American, Bondtie, Floterope (E &amp; P monofil)</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>206 Willow Ave., Honesdale, PA 18431</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Honesdale, PA &amp; Lafayette, LA</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr"/>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>22310 S. Bonita Street, Carson, CA 90801; 5854 Hollis St., Emeryville, CA 94608; 2214 W. 21st Street, P.O. Box 52134, Jacksonville, FL 32201; 6002 North 51st St., Tampa, FL 33610; 500 Country Club Dr., Bensenville, IL 60106; 1523 St. Ferdinand St., New Orleans, LA 70117; 139 California St., Newton, MA 02158; 1715 South 11th St., St. Louis, MO 63104; 6827 E. Thornapple Dr., Gates Mills, OH 44040; 2609 Leeland St., Houston, TX 77003; 5050 First Avenue South, Seattle, WA 98134</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>Textile Organon November 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>AMERICAN POLYCRAFT</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>P lilas</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr"/>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr"/>
+      <c r="J45" t="inlineStr"/>
+      <c r="N45" t="inlineStr"/>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>AMETEK INC., SPECIAL FILAMENTS DIVISION</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>E &amp; P monofil</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>see listing on page 197</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Odenton, MD</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr"/>
+      <c r="J46" t="inlineStr"/>
+      <c r="N46" t="inlineStr"/>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>AMOCO FABRICS COMPANY</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr"/>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>550 Interstate North Pkwy., Atlanta, GA 30339</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Andalusia &amp; Roanoke, AL &amp; Bainbridge, Hazlehurst &amp; Nashville, GA &amp; Lowell, NC &amp; Afton, VA</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr"/>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>15066 Shoemaker Ave., Santa Fe Springs, CA 90670; P.O. Box 911, Dalton, GA 30720; P.O. Box 3667, 604 Sheridan Avenue, Dalton, GA 30720; 700 West 1st Street, Lowell, NC 28098</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>The company produces PolyBac and Polybac FLW primary carpet backing; Action Bae secondary carpet backing; Amo Pave, Amo Weve and Propex industrial goods; and Marquesa Lana, Patlon, Patlon Plus and Synera yarn at these locations.</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>ARLIN MFG. CO., INC.</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>P film</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>239 Industrial Ave., Lowell, MA 01853</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Lowell, MA</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr"/>
+      <c r="J48" t="inlineStr"/>
+      <c r="N48" t="inlineStr"/>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>ARMSTRONG WORLD INDUSTRIES, INC.</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr"/>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>Lancaster, PA 17604</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Charlotte, NC (P film-captive)</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr"/>
+      <c r="J49" t="inlineStr"/>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>The company weaves carpet backing here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>AVTEX FIBERS, INC.</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr"/>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>see listing page 197</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Front Royal, VA (staple)</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr"/>
+      <c r="J50" t="inlineStr"/>
+      <c r="N50" t="inlineStr"/>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>BEAULIEAU OF AMERICA</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr"/>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr"/>
+      <c r="J51" t="inlineStr"/>
+      <c r="N51" t="inlineStr"/>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>BEMIS COMPANY, INC.</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr"/>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>800 Northstar Center, Minneapolis, MN 55402</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>St. Louis, MO (P film)</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr"/>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>2400 S. Second St., St. Louis, MO 63104; 90 Park Ave., New York, NY 10016</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr"/>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>BERKLEY &amp; CO. INC.</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr"/>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>see listing on page 197</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Spirit Lake, IA (E &amp; P monofil-captive)</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr"/>
+      <c r="J53" t="inlineStr"/>
+      <c r="N53" t="inlineStr"/>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>BLUE MOUNTAIN EXTRUSIONS</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>Gold Medal, Poly Autotwine, Poly Macrame, polylasting, TY-EZ Polytape, Tylon, Tytite (E &amp; P film cordage and industrial yarn &amp; tape)</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>P.O. Box 100, Anniston, AL 36202</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Anniston, AL</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr"/>
+      <c r="J54" t="inlineStr"/>
+      <c r="N54" t="inlineStr"/>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>BRIDON CORDAGE INC.</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr"/>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>909 16th St., Albert Lea, MN 56007</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Albert Lea, MN</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr"/>
+      <c r="J55" t="inlineStr"/>
+      <c r="N55" t="inlineStr">
+        <is>
+          <t>P film cordage</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>BURLINGTON, INC</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr"/>
+      <c r="F56" t="inlineStr"/>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Greensboro, NC</t>
+        </is>
+      </c>
+      <c r="I56" t="inlineStr"/>
+      <c r="J56" t="inlineStr"/>
+      <c r="N56" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>CAMAC CORPORATION</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr"/>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>see listing on page 164</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Bristol, VA (P yarn)</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr"/>
+      <c r="J57" t="inlineStr"/>
+      <c r="N57" t="inlineStr"/>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>CAVALIER CARPET CO</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr"/>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr"/>
+      <c r="J58" t="inlineStr"/>
+      <c r="N58" t="inlineStr"/>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>CHASE BAG COMPANY</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr"/>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2 Greenwich Plaza, Greenwich, CT 06830</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Orange, CA &amp; New Orleans, LA</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr"/>
+      <c r="J59" t="inlineStr"/>
+      <c r="N59" t="inlineStr">
+        <is>
+          <t>Textile Organon November 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>COLOR TREND, INC</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr"/>
+      <c r="F60" t="inlineStr"/>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr"/>
+      <c r="J60" t="inlineStr"/>
+      <c r="N60" t="inlineStr"/>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>THE COLUMBIAN GROUP, DIVISION OF THE COLUMBIAN ROPE COMPANY</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>Manipro, Poly K, Poly Twine, Polypro 6, Radiant Twine (E &amp; P monofil &amp; film)</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1 Columbian Drive, Auburn, NY 13021</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Jefferson, LA &amp; Auburn, NY</t>
+        </is>
+      </c>
+      <c r="I61" t="inlineStr"/>
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>90 Charter Oak Ave., San Francisco, CA 94124; 600 St. George Ave., Jefferson, LA 70181; 1003 Medina St., Houston, TX 77012</t>
+        </is>
+      </c>
+      <c r="N61" t="inlineStr"/>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>CONCORDE FIBERS, INC.</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>P.O. Box 200, Highway 45, Jamestown, SC 29453</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Jamestown, SC</t>
+        </is>
+      </c>
+      <c r="I62" t="inlineStr"/>
+      <c r="J62" t="inlineStr"/>
+      <c r="N62" t="inlineStr"/>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>CROWE ROPE COMPANY</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>Crowe/on (P monofil rope)</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>Warren, ME 04864</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Warren, ME</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr"/>
+      <c r="J63" t="inlineStr"/>
+      <c r="N63" t="inlineStr"/>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>CROWN ZELLERBACH CORPORATION, NONWOVEN FABRICS DIVISION</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>Ce/estra, Fibretex (P spunbonded)</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1 Bush St., San Francisco, CA 94119</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Washougal, WA</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr"/>
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>3720 Grant St., Washougal, WA 98671</t>
+        </is>
+      </c>
+      <c r="N64" t="inlineStr"/>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>CUMBERLAND, INC.</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr"/>
+      <c r="F65" t="inlineStr"/>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Dalton, GA (P yarn)</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr"/>
+      <c r="J65" t="inlineStr"/>
+      <c r="N65" t="inlineStr"/>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>CUTLASS CARPET</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr"/>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I66" t="inlineStr"/>
+      <c r="J66" t="inlineStr"/>
+      <c r="N66" t="inlineStr"/>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>DIAMOND MILLS, INC.</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>P yarn &amp; film</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr"/>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr"/>
+      <c r="J67" t="inlineStr"/>
+      <c r="N67" t="inlineStr"/>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>E. I. DU PONT DE NEMOURS &amp; COMPANY (INC.), TEXTILE FIBERS DEPARTMENT</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>Typar (P spunbonded), Tyvek (E spunbonded)</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>see listing on page 197</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Old Hickory, TN &amp; Richmond, VA</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr"/>
+      <c r="J68" t="inlineStr"/>
+      <c r="N68" t="inlineStr"/>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>ELIZABETH WEBBING MILLS CO., INC.</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>P film</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>521 Roosevelt Ave., Central Falls, RI 02862</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Central Falls, RI</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr"/>
+      <c r="J69" t="inlineStr"/>
+      <c r="N69" t="inlineStr"/>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>ENSIGN-BICKFORD INDUSTRIES, INC., FILM FIBERS DIVISION</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr"/>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>660 Hopmeadow St., Simsbury, CT 06070</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Simsbury, CT (P film)</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr"/>
+      <c r="J70" t="inlineStr"/>
+      <c r="N70" t="inlineStr"/>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>EXXON CHEMICAL AMERICAS, INDUSTRIAL TEXTILES DIVISION</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr"/>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>Hwy. 78 West, Summerville, SC 29483</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Kingman, KS (P monofil &amp; film cordage) &amp; Summerville, SC (P monofil &amp; film fabrics)</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr"/>
+      <c r="J71" t="inlineStr">
+        <is>
+          <t>380 Interstate North, Suite 375, Atlanta, GA 30339</t>
+        </is>
+      </c>
+      <c r="N71" t="inlineStr">
+        <is>
+          <t>The company also weaves Baxon &amp; Fuzzbak carpet backing and packaging fabrics at Summerville, SC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>FIBERS &amp; FABRICS OF GEORGIA, INC.</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>E &amp; P yarn, monofil &amp; multifil</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>P.O. Box 962, Elberton, GA 30635</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Elberton, GA</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr"/>
+      <c r="J72" t="inlineStr"/>
+      <c r="N72" t="inlineStr">
+        <is>
+          <t>The company also weaves carpet backing here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>FIBERS SOUTH, INC.</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>Po/ystar, Trustite and Tyrite (P film fiber, monofil, &amp; tapes)</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>P.O. Box 189, Trussville, AL 35173</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Trussville, AL</t>
+        </is>
+      </c>
+      <c r="I73" t="inlineStr"/>
+      <c r="J73" t="inlineStr"/>
+      <c r="N73" t="inlineStr"/>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>FNT INDUSTRIES, INC.</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>E monofil</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>927 First Street, Menominee, Ml 49858</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Menominee, Ml</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr"/>
+      <c r="J74" t="inlineStr"/>
+      <c r="N74" t="inlineStr"/>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>FIBRON CORPORATION OF TENNESSEE</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>Fibri-Cord, Fibri-Knit, Fibrilawn, Fibrilon (P film)</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>Clayton, MO</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Chattanooga, TN</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr"/>
+      <c r="J75" t="inlineStr"/>
+      <c r="N75" t="inlineStr">
+        <is>
+          <t>Subsidiary of Harbour Group Ltd.</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>FILAMENT FIBER TECHNOLOGY INCORPORATED</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>999 Airport Road, Lakewood, NJ 08701</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Lakewood, NJ</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr"/>
+      <c r="J76" t="inlineStr"/>
+      <c r="N76" t="inlineStr"/>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>GENERAL FIBERS &amp; FABRICS, INC.</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>P film</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>Orchard Hill Rd ., LaGrange Industrial Park, LaGrange, GA 30240</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>LaGrange, GA</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr"/>
+      <c r="J77" t="inlineStr"/>
+      <c r="N77" t="inlineStr">
+        <is>
+          <t>The company also weaves Supertuft carpet backing as well as bagging and woven polypropylene fabrics here</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>GEORGIA SYNTHETICS, INC.</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>E &amp; p yarn, monofil &amp; multifil</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>P.O. Box 962, Elberton, GA 30635</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Elberton, GA</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr"/>
+      <c r="J78" t="inlineStr"/>
+      <c r="N78" t="inlineStr">
+        <is>
+          <t>Also see listing for Fibers &amp; Fabrics of Georgia, Inc.</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>GLADDING CORP., CORDAGE DIVISION</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr"/>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>Gladding St., South Otselic, NY 13155</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>South Otselic, NY (P monofil)</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr"/>
+      <c r="J79" t="inlineStr"/>
+      <c r="N79" t="inlineStr"/>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>HERCULES INCORPORATED, HERCULES ENGINEERED &amp; FABRICATED PRODUCTS, COMPANY, FIBERS</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>Herculon (P yarn &amp; staple)</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>Hercules Plaza, Wilmington, DE 19894</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Oxford, GA</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr"/>
+      <c r="J80" t="inlineStr">
+        <is>
+          <t>280 Railroad Ave. Greenwich, CT 06830</t>
+        </is>
+      </c>
+      <c r="N80" t="inlineStr">
+        <is>
+          <t>MARKETING HEADQUARTERS: 3169 Holcomb Bridge Rd., Suite 301, Norcross, GA 30071</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>THE HOOVEN &amp; ALLISON COMPANY</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>P film cordage</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>677 Cincinnati Ave., Xenia, OH 45385</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Xenia, OH</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr"/>
+      <c r="J81" t="inlineStr"/>
+      <c r="N81" t="inlineStr"/>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>INTEGRATED PRODUCTS, INC.</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>P staple</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr"/>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rome, GA</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr"/>
+      <c r="J82" t="inlineStr"/>
+      <c r="N82" t="inlineStr"/>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>J &amp; J INDUSTRIES</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr"/>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I83" t="inlineStr"/>
+      <c r="J83" t="inlineStr"/>
+      <c r="N83" t="inlineStr"/>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>KELLER INDUSTRIES, INC.</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>P monofil - captive</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>18000 State Rd. #9, North Miami, FL 33162</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Swainsboro, GA</t>
+        </is>
+      </c>
+      <c r="I84" t="inlineStr"/>
+      <c r="J84" t="inlineStr"/>
+      <c r="N84" t="inlineStr">
+        <is>
+          <t>The company weaves outdoor furniture webs here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>KIMBERLY-CLARK CORPORATION</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>Accord, Duraguard, Evolution (P spunbonded), Cyc/ean (P spunbonded / meltblown laminate), Evolution II, Safeguard CPF (P spun bonded meltblown &amp; P meltblown)</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>1400 Holcomb Bridge Road, Roswell, GA 30076</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Corinth, MS &amp; Balfour, NC &amp; Neenah, WI</t>
+        </is>
+      </c>
+      <c r="I85" t="inlineStr"/>
+      <c r="J85" t="inlineStr"/>
+      <c r="N85" t="inlineStr"/>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>LAMBETH CORPORATION</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>Lambeth (E &amp; P monofil)</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>627 Tarkiln Hill Rd., New Bedford, MA 02745</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>New Bedford, MA</t>
+        </is>
+      </c>
+      <c r="I86" t="inlineStr"/>
+      <c r="J86" t="inlineStr"/>
+      <c r="N86" t="inlineStr"/>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>LAWRENCE HOSE COMPANY</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr"/>
+      <c r="F87" t="inlineStr"/>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Burlington, NC (E monofil-captive)</t>
+        </is>
+      </c>
+      <c r="I87" t="inlineStr"/>
+      <c r="J87" t="inlineStr">
+        <is>
+          <t>P.O. Box 1838, Burlington, NC 27215</t>
+        </is>
+      </c>
+      <c r="N87" t="inlineStr">
+        <is>
+          <t>A Consolidated Foods Company</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>LORETEX, DIVISION OF OIVIND LORENTZEN, INC.</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr"/>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>522 Fifth Ave., New York, NY 10036</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Guilderland Center, NY (E film-captive)</t>
+        </is>
+      </c>
+      <c r="I88" t="inlineStr"/>
+      <c r="J88" t="inlineStr">
+        <is>
+          <t>Northeastern Industrial Park, Guilderland Center, NY 12505</t>
+        </is>
+      </c>
+      <c r="N88" t="inlineStr"/>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>MIRAFI INC.</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr"/>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>P.O. Box 240967, Charlotte, NC 28224</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Moultrie, GA (P film-captive)</t>
+        </is>
+      </c>
+      <c r="I89" t="inlineStr"/>
+      <c r="J89" t="inlineStr"/>
+      <c r="N89" t="inlineStr">
+        <is>
+          <t>Subsidiary of Dominion Textiles</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>NSL, INC.</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr"/>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>Box 658, Soperton, GA 30457</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Soperton, GA</t>
+        </is>
+      </c>
+      <c r="I90" t="inlineStr"/>
+      <c r="J90" t="inlineStr"/>
+      <c r="N90" t="inlineStr">
+        <is>
+          <t>The company weaves carpet backing here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>THE OSTERNECK COMPANY</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr"/>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>P.O. Box 859, Lumberton, NC 28359</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Lumberton, NC</t>
+        </is>
+      </c>
+      <c r="I91" t="inlineStr"/>
+      <c r="J91" t="inlineStr"/>
+      <c r="N91" t="inlineStr">
+        <is>
+          <t>The company weaves carpet backing and industrial goods here.</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>PHILLIPS FIBERS CORPORATION</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Marvess (P yarn, staple &amp; tow)</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>P.O. Box 66, Interstate 85, Greenville, SC 29602</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Rocky Mount, NC &amp; Seneca, SC &amp; Spartanburg, SC</t>
+        </is>
+      </c>
+      <c r="I92" t="inlineStr"/>
+      <c r="J92" t="inlineStr"/>
+      <c r="N92" t="inlineStr">
+        <is>
+          <t>The company also manufactures Duon, Petromat, Rutan and Supac nonwoven fabrics at Seneca, SC.</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>POLYLOOM CORP OF AMERICA</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Polyloom (P split film)</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1615 N. Broadway, P.O. Box 289, Dayton, TN 37321</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Dayton, TN</t>
+        </is>
+      </c>
+      <c r="I93" t="inlineStr"/>
+      <c r="J93" t="inlineStr"/>
+      <c r="N93" t="inlineStr"/>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>SARLON INDUSTRIES, INC.</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>P monofil &amp; film</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>775 N.W. 71st Street, Miami, FL 33150</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="I94" t="inlineStr"/>
+      <c r="J94" t="inlineStr"/>
+      <c r="N94" t="inlineStr"/>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>SHUFORD MILLS, INC.</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr"/>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>Highland Ave. &amp; 15th St., N.E., Hickory, NC 28601</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Hickory, NC</t>
+        </is>
+      </c>
+      <c r="I95" t="inlineStr"/>
+      <c r="J95" t="inlineStr"/>
+      <c r="N95" t="inlineStr">
+        <is>
+          <t>P film, cordage and twine</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>SOLUTION FIBERS INC.</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr"/>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I96" t="inlineStr"/>
+      <c r="J96" t="inlineStr"/>
+      <c r="N96" t="inlineStr"/>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>SOUTHERN WEAVING, INC.</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr"/>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Greenville, SC</t>
+        </is>
+      </c>
+      <c r="I97" t="inlineStr"/>
+      <c r="J97" t="inlineStr"/>
+      <c r="N97" t="inlineStr"/>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>SUNSHINE CORDAGE CORPORATION</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>Ca/a-Line, O/etex, Poncar, Sunshine, Sunylon, Sunypoo/ (E &amp; P monofil)</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>7250 N.W. 41st St., Miami, FL 33166</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Miami, FL</t>
+        </is>
+      </c>
+      <c r="I98" t="inlineStr"/>
+      <c r="J98" t="inlineStr"/>
+      <c r="N98" t="inlineStr"/>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>SYNTHETIC INDUSTRIES</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr"/>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>309 Lafayette Rd., Chickamauga, GA 30707</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Chickamauga, GA &amp; Houston, TX (P film-captive)</t>
+        </is>
+      </c>
+      <c r="I99" t="inlineStr"/>
+      <c r="J99" t="inlineStr"/>
+      <c r="N99" t="inlineStr">
+        <is>
+          <t>The company weaves slit film carpet backing and industrial fabrics.</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>TECHNOTRADE</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>P yarn</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr"/>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Dalton, GA</t>
+        </is>
+      </c>
+      <c r="I100" t="inlineStr"/>
+      <c r="J100" t="inlineStr"/>
+      <c r="N100" t="inlineStr"/>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>TUBBS CORDAGE COMPANY</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Loktite (P monofil &amp; film)</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>660 Bryant St., P.O. Box 7986, San Francisco, CA 94120</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Orange, CA</t>
+        </is>
+      </c>
+      <c r="I101" t="inlineStr"/>
+      <c r="J101" t="inlineStr">
+        <is>
+          <t>P.O. Box 709, Orange, CA 92666; 2045 No. 15th Ave., Melrose Park, IL 60160; 5501 Jefferson Highway, Harahan, Jefferson Parish, LA 70123; 1355 West Front St., Plainfield, NJ 07063; 1311 Palmer St., Houston, TX 77003; 415 South Fidalgo St., Seattle, WA 98108</t>
+        </is>
+      </c>
+      <c r="N101" t="inlineStr">
+        <is>
+          <t>The company's Yarn Division operates carpet yarn spinning facilities at Dos Palos and Porterville, CA.</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>TWINE PRODUCTS CORPORATION</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr"/>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>201 Dufossat, P.O. Box 15285, New Orleans, LA 70175</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>New Orleans, LA (P fi lm)</t>
+        </is>
+      </c>
+      <c r="I102" t="inlineStr"/>
+      <c r="J102" t="inlineStr"/>
+      <c r="N102" t="inlineStr"/>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>UNITED STATES ROPE COMPANY</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>P monofil</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>711 Hamilton Ave., Menlo Park, CA 94025</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Menlo Park, CA</t>
+        </is>
+      </c>
+      <c r="I103" t="inlineStr"/>
+      <c r="J103" t="inlineStr"/>
+      <c r="N103" t="inlineStr"/>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>WALL INDUSTRIES, INC.</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>E &amp; P monofil rope &amp; cordage</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>P.O. Box G, Beverly, NJ 08010</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Elkin, NC</t>
+        </is>
+      </c>
+      <c r="I104" t="inlineStr"/>
+      <c r="J104" t="inlineStr"/>
+      <c r="N104" t="inlineStr"/>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>WALTRICH PLASTIC CORPORATION</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>P monofil</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>P.O. Box 19, Route 522, Tennent, NJ 07763</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Tennent, NJ</t>
+        </is>
+      </c>
+      <c r="I105" t="inlineStr"/>
+      <c r="J105" t="inlineStr"/>
+      <c r="N105" t="inlineStr"/>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>WAYN-TEX INC.</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr"/>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>Box 648, Dalton, GA 30720</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Waynesboro, VA</t>
+        </is>
+      </c>
+      <c r="I106" t="inlineStr"/>
+      <c r="J106" t="inlineStr"/>
+      <c r="N106" t="inlineStr">
+        <is>
+          <t>The company weaves Wayntuf primary carpet backing. (captive)</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>WELLINGTON PURITAN MILLS, MONTAIR DIV.</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Olefin</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Pur- Ty, Welltite (E &amp; P monofil &amp; film)</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>Nelson St., Pilot Mountain, NC 27041</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Pilot Mountain, NC</t>
+        </is>
+      </c>
+      <c r="I107" t="inlineStr"/>
+      <c r="J107" t="inlineStr"/>
+      <c r="N107" t="inlineStr"/>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>WELLINGTON SYNTHETIC FIBRES, INC.</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Textile Glass</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr"/>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>52 Courtland St., Paterson, NJ 07503</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Leesville &amp; Summerville, SC</t>
+        </is>
+      </c>
+      <c r="I108" t="inlineStr"/>
+      <c r="J108" t="inlineStr"/>
+      <c r="N108" t="inlineStr">
+        <is>
+          <t>The company also weaves outdoor furniture webs at Leesville.</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>CERTAINTEED CORPORATION, FIBER GLASS REINFORCEMENTS DIVISION</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Textile Glass</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr"/>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>P.O. Box 860, Valley Forge, PA 19482</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Wichita Falls, TX</t>
+        </is>
+      </c>
+      <c r="I109" t="inlineStr"/>
+      <c r="J109" t="inlineStr">
+        <is>
+          <t>P.O. Box 736, Bessemer, AL 35023; 1801 E. Parkcourt Pl., Bldg. D., Suite 104, Santa Ana, CA 92701; 1300 S. Harbor City Blvd., Suite 11, Melbourne, FL 32901; 854 Fairway Drive, Bensenville, IL 60106; 533-A Muv Len Rd., Olathe, KS 66061; 1276D Washington St., Weymouth, MA 02189; 1450 Souter St., Troy, Ml 48083-2986; 5555 Airport Hwy., Toledo, OH 43615; 1400 Union Meeting Road, Blue Bell, PA 19422; West Oak Square Offices, 4009 Anderson Mill Rd., Spartanburg, SC 29301; 4811 Lebanon Road, Hermitage, TN 37076; 1401 Pioneer Parkway West, Arlington, TX 76013; 9317 N.E. Highway 99, Unit D, Vancouver, WA 98665</t>
+        </is>
+      </c>
+      <c r="N109" t="inlineStr">
+        <is>
+          <t>roving, woven roving, mat, chopped strand &amp; combination product</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>F.G.I. FIBERS, INC.</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Textile Glass</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>roving &amp; chopped</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>Homestead Place, Amsterdam, NY 12010</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Amsterdam, NY</t>
+        </is>
+      </c>
+      <c r="I110" t="inlineStr"/>
+      <c r="J110" t="inlineStr"/>
+      <c r="N110" t="inlineStr"/>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>LUNDY TECHNICAL CENTER</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Textile Glass</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>RoMHOg/as (metallized glass fiber roving &amp; strand and nonwoven metallized glass mat)</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>Pompano Beach, FL 33064</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Pompano Beach, FL</t>
+        </is>
+      </c>
+      <c r="I111" t="inlineStr"/>
+      <c r="J111" t="inlineStr"/>
+      <c r="N111" t="inlineStr"/>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>MANVILLE CORPORATION, FILTRATION &amp; MINERALS DIVISION</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Textile Glass</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Chop-Pak (mat, chopped strand and staple yarn &amp; sliver)</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>P.O. Box 5108, Ken-Caryl Ranch, Denver, CO 80217</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Waterville, OH &amp; Etowah, TN</t>
+        </is>
+      </c>
+      <c r="I112" t="inlineStr"/>
+      <c r="J112" t="inlineStr">
+        <is>
+          <t>7500 Dutch Rd., Waterville, OH 43566</t>
+        </is>
+      </c>
+      <c r="N112" t="inlineStr"/>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>NICOFIBERS INC.</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>Textile Glass</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Conformat, Consurmat, Surmat</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>Iron point Rd., Shawnee, OH 43782</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>Shawnee, OH</t>
+        </is>
+      </c>
+      <c r="I113" t="inlineStr"/>
+      <c r="J113" t="inlineStr"/>
+      <c r="N113" t="inlineStr">
+        <is>
+          <t>Textile Organon November 1984</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>OWENS-CORNING FIBERGLAS CORPORATION</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>Textile Glass</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Araton, Beta, Bi-Ply, Fiberglas, S-Glass, S-2 Glass (yarn, roving, woven roving, mat, chopped, &amp; milled)</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>Fiberglas Tower, Toledo, OH 43659</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>Huntington, PA &amp; Aiken &amp; Anderson, SC &amp; Jackson, TN &amp; Amarillo, TX</t>
+        </is>
+      </c>
+      <c r="I114" t="inlineStr"/>
+      <c r="J114" t="inlineStr">
+        <is>
+          <t>10816 Executive Center Drive, Suite 207, Little Rock, AR 72211; 5933 Telegraph Road, Los Angeles, CA 90040; 477 Forbes Blvd., S. San Francisco, CA 94080; 2700 Augustine Dr., Suite 178, Santa Clara, CA 95054; 4019 Woodcock Dr., Suite 109, Jacksonville, FL 32207; 541 S. Rt. 441, Suite 3, Margate, FL 33068; 4950 W. Kennedy Blvd., Suite 301, Tampa, FL 33609; 6650 Powers Ferry Rd., Suite 200, Atlanta, GA 30339; 2805-B Lincoln Ave., Evansville, IN 47714; 2215 Sanders Rd., Northbrook, IL 60062; 4410 Executive Blvd., Ft. Wayne, IN 46808; 9000 Keystone Crossing, Suite 965, Indianapolis, IN 46240; Corporate Woods, 9300 W. 110th St., Bldg. 55-Suite 200, Overland Park, KS 66210; 10401 Linn Station Rd., Suite 235, Louisville, KY 40223; 25 Braintree Hill Park, Suite 305, Braintree, MA 02184; 2075 W. Big Beaver Rd., Suite 500, Troy, MI 48084; One Appletree Square, Suite 1252, Bloomington, MN 55420; Bldg. 5601, 77 Center Dr., Suite 240, Charlotte, NC 28210; 700 White Plains Rd., Scarsdale, NY 10583; 5700 Pearl Rd., Suite 104, Cleveland, OH 44129; 900 West Valley Rd., Suite 1101, Wayne, PA 19087; Brookside Office Park, #1 Harbison Way, Suite 208, Columbia, SC 29210; Two Maryland Farms, Suite 236, Brentwood, TN 37027; 6200 Baum Dr., Knoxville, TN 37919; 12880 Hillcrest, Suite 100, Dallas, TX 75230; 256 North Belt East, Suite 100, Houston, TX 77060; 9601 McAllister, San Antonio, TX 78216; 12301 N.E. 10th Place, Bellevue, WA 98005; Mayfair Bank Tower, Suite 150, 2300 N. Mayfair Rd., Milwaukee, WI 53226</t>
+        </is>
+      </c>
+      <c r="N114" t="inlineStr"/>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>1984</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>PPG INDUSTRIES, INC., FIBER GLASS PRODUCTS</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>Textile Glass</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>yarn, roving, mat, chopped strand, woven roving &amp; rubber reinforcements</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>One PPG Place, Pittsburgh, PA 15272</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>Lexington &amp; Shelby, NC</t>
+        </is>
+      </c>
+      <c r="I115" t="inlineStr"/>
+      <c r="J115" t="inlineStr">
+        <is>
+          <t>1800 E. McFadden Ave., Suite 250, Santa Ana, CA 92705; 880 Johnson Ferry Rd., N.E., Suite 220, Atlanta, GA 30342; 4015 Executive Park Dr., Suite 100, Cincinnati, OH 45241; 2155 West Big Beaver Rd., P.O. Box 3510, Troy, Ml 48084; 30 Tower Lane, Avon Park South, Avon, CT 06001; 1601 East Garrison Blvd., Suite 210, Gastonia, NC 28054; 322 Park Ave., Scotch Plains, NJ 07076</t>
+        </is>
+      </c>
+      <c r="N115" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
